--- a/uploads/invoice-return.xlsx
+++ b/uploads/invoice-return.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\coralis\20251014\export\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\coralis\20251021\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6024528-CE96-4F17-BF31-1EBF1FBDB566}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2184207C-087A-438A-A310-631C7318B40B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5739" uniqueCount="2006">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6194" uniqueCount="2150">
   <si>
     <t>return_date</t>
   </si>
@@ -6038,6 +6038,438 @@
   </si>
   <si>
     <t>19ASG25000301</t>
+  </si>
+  <si>
+    <t>01ASG25000284</t>
+  </si>
+  <si>
+    <t>UTAMA APOTIK-TEGAL</t>
+  </si>
+  <si>
+    <t>044914</t>
+  </si>
+  <si>
+    <t>09ASG25000973</t>
+  </si>
+  <si>
+    <t>09ASG25000974</t>
+  </si>
+  <si>
+    <t>KIMIA FARMA TASIK SILIWANGI APOTEK</t>
+  </si>
+  <si>
+    <t>068957</t>
+  </si>
+  <si>
+    <t>09ASG25000975</t>
+  </si>
+  <si>
+    <t>09ASG25000976</t>
+  </si>
+  <si>
+    <t>09ASG25000977</t>
+  </si>
+  <si>
+    <t>GRACE APOTEK - 09G154</t>
+  </si>
+  <si>
+    <t>071375</t>
+  </si>
+  <si>
+    <t>09ASG25000978</t>
+  </si>
+  <si>
+    <t>09ASG25000979</t>
+  </si>
+  <si>
+    <t>09ASJ25000015</t>
+  </si>
+  <si>
+    <t>17ASG25000476</t>
+  </si>
+  <si>
+    <t>DINKES KABUPATEN BULUKUMBA</t>
+  </si>
+  <si>
+    <t>077660</t>
+  </si>
+  <si>
+    <t>17ASG25000477</t>
+  </si>
+  <si>
+    <t>01ASG25000285</t>
+  </si>
+  <si>
+    <t>UTARI, APOTEK</t>
+  </si>
+  <si>
+    <t>073486</t>
+  </si>
+  <si>
+    <t>01ASG25000286</t>
+  </si>
+  <si>
+    <t>0047/1025</t>
+  </si>
+  <si>
+    <t>ZAHRA MEDIKA, APOTEK</t>
+  </si>
+  <si>
+    <t>059869</t>
+  </si>
+  <si>
+    <t>01ASG25000287</t>
+  </si>
+  <si>
+    <t>TEGUH FARMA, APOTEK</t>
+  </si>
+  <si>
+    <t>073393</t>
+  </si>
+  <si>
+    <t>01ASG25000288</t>
+  </si>
+  <si>
+    <t>RAFA MEDIKA, APOTEK</t>
+  </si>
+  <si>
+    <t>077081</t>
+  </si>
+  <si>
+    <t>01ASG25000289</t>
+  </si>
+  <si>
+    <t>AFISHA FARMA, APOTEK</t>
+  </si>
+  <si>
+    <t>040809</t>
+  </si>
+  <si>
+    <t>01ASG25000290</t>
+  </si>
+  <si>
+    <t>052758/TCF/09/2025</t>
+  </si>
+  <si>
+    <t>01ASG25000291</t>
+  </si>
+  <si>
+    <t>WINDUHAJI, APOTEK</t>
+  </si>
+  <si>
+    <t>062877</t>
+  </si>
+  <si>
+    <t>09ASG25000980</t>
+  </si>
+  <si>
+    <t>19427/AS/10/2025/T</t>
+  </si>
+  <si>
+    <t>AL ISLAM RUMAH SAKIT  ( SOEKARNO HATTA  )</t>
+  </si>
+  <si>
+    <t>017034</t>
+  </si>
+  <si>
+    <t>09ASG25000981</t>
+  </si>
+  <si>
+    <t>061471/TCF/10/2025</t>
+  </si>
+  <si>
+    <t>SAUYUNAN APOTEK</t>
+  </si>
+  <si>
+    <t>049935</t>
+  </si>
+  <si>
+    <t>09ASG25000982</t>
+  </si>
+  <si>
+    <t>17ASG25000478</t>
+  </si>
+  <si>
+    <t>SELLA FARMA APOTEK/17S038</t>
+  </si>
+  <si>
+    <t>003740</t>
+  </si>
+  <si>
+    <t>17ASG25000479</t>
+  </si>
+  <si>
+    <t>17ASG25000480</t>
+  </si>
+  <si>
+    <t>RAYNDI FARMA APOTEK</t>
+  </si>
+  <si>
+    <t>013972</t>
+  </si>
+  <si>
+    <t>01ASG25000292</t>
+  </si>
+  <si>
+    <t>INSAN FARMA SITOPENG, APOTEK</t>
+  </si>
+  <si>
+    <t>054231</t>
+  </si>
+  <si>
+    <t>09ASG25000983</t>
+  </si>
+  <si>
+    <t>KIMIA FARMA BANTENG APOTEK ( KF 356 )</t>
+  </si>
+  <si>
+    <t>038905</t>
+  </si>
+  <si>
+    <t>09ASG25000984</t>
+  </si>
+  <si>
+    <t>09ASG25000985</t>
+  </si>
+  <si>
+    <t>09ASG25000986</t>
+  </si>
+  <si>
+    <t>BARU LAKSANA APOTEK</t>
+  </si>
+  <si>
+    <t>058049</t>
+  </si>
+  <si>
+    <t>09ASG25000987</t>
+  </si>
+  <si>
+    <t>17ASG25000481</t>
+  </si>
+  <si>
+    <t>FAEYZA FARMA APOTEK  - 17F107</t>
+  </si>
+  <si>
+    <t>080200</t>
+  </si>
+  <si>
+    <t>17ASG25000482</t>
+  </si>
+  <si>
+    <t>17ASG25000483</t>
+  </si>
+  <si>
+    <t>062046/TCF/10/2025</t>
+  </si>
+  <si>
+    <t>FAISAL RSI.</t>
+  </si>
+  <si>
+    <t>003702</t>
+  </si>
+  <si>
+    <t>17ASG25000484</t>
+  </si>
+  <si>
+    <t>ADITYA KIMIA FARMA PT.</t>
+  </si>
+  <si>
+    <t>029089</t>
+  </si>
+  <si>
+    <t>17ASG25000485</t>
+  </si>
+  <si>
+    <t>MADINAH FARMA  APOTEK - PARE</t>
+  </si>
+  <si>
+    <t>072480</t>
+  </si>
+  <si>
+    <t>17ASG25000486</t>
+  </si>
+  <si>
+    <t>17ASG25000487</t>
+  </si>
+  <si>
+    <t>17ASG25000488</t>
+  </si>
+  <si>
+    <t>17ASG25000489</t>
+  </si>
+  <si>
+    <t>19ASG25000302</t>
+  </si>
+  <si>
+    <t>SARI MULIA  RS APT - BANJARMASIN</t>
+  </si>
+  <si>
+    <t>020192</t>
+  </si>
+  <si>
+    <t>19ASG25000303</t>
+  </si>
+  <si>
+    <t>19ASG25000304</t>
+  </si>
+  <si>
+    <t>MULIA APOTEK - SAMPIT</t>
+  </si>
+  <si>
+    <t>062582</t>
+  </si>
+  <si>
+    <t>19ASG25000305</t>
+  </si>
+  <si>
+    <t>LIVI COSMETIC TOKO - BANJARMASIN</t>
+  </si>
+  <si>
+    <t>068430</t>
+  </si>
+  <si>
+    <t>19ASG25000306</t>
+  </si>
+  <si>
+    <t>09ASG25000988</t>
+  </si>
+  <si>
+    <t>057897/TCF/10/2025</t>
+  </si>
+  <si>
+    <t>HASNA MEDIKA GARUT JANTUNG UTAMA KLINIK</t>
+  </si>
+  <si>
+    <t>073538</t>
+  </si>
+  <si>
+    <t>09ASG25000989</t>
+  </si>
+  <si>
+    <t>056711/TCF/09/2025</t>
+  </si>
+  <si>
+    <t>CIERENG APOTEK</t>
+  </si>
+  <si>
+    <t>008948</t>
+  </si>
+  <si>
+    <t>09ASG25000990</t>
+  </si>
+  <si>
+    <t>UGIH APOTEK</t>
+  </si>
+  <si>
+    <t>028242</t>
+  </si>
+  <si>
+    <t>09ASG25000991</t>
+  </si>
+  <si>
+    <t>SUCI UTAMI APOTEK</t>
+  </si>
+  <si>
+    <t>056473</t>
+  </si>
+  <si>
+    <t>09ASG25000992</t>
+  </si>
+  <si>
+    <t>BRAWIJAYA CLINIK</t>
+  </si>
+  <si>
+    <t>057382</t>
+  </si>
+  <si>
+    <t>19ASG25000307</t>
+  </si>
+  <si>
+    <t>19ASG25000308</t>
+  </si>
+  <si>
+    <t>01ASG25000293</t>
+  </si>
+  <si>
+    <t>01ASG25000294</t>
+  </si>
+  <si>
+    <t>17ASG25000490</t>
+  </si>
+  <si>
+    <t>MITZUKO KOSMETIK</t>
+  </si>
+  <si>
+    <t>080702</t>
+  </si>
+  <si>
+    <t>17ASG25000491</t>
+  </si>
+  <si>
+    <t>03870/AS/06/2025</t>
+  </si>
+  <si>
+    <t>SILOAM INTERNATIONAL HOSPITALS TBK PT.</t>
+  </si>
+  <si>
+    <t>050385</t>
+  </si>
+  <si>
+    <t>17ASG25000492</t>
+  </si>
+  <si>
+    <t>19ASG25000309</t>
+  </si>
+  <si>
+    <t>01ASG25000295</t>
+  </si>
+  <si>
+    <t>WEDEN, APOTEK</t>
+  </si>
+  <si>
+    <t>061322</t>
+  </si>
+  <si>
+    <t>01ASG25000296</t>
+  </si>
+  <si>
+    <t>AFNAN FARMA, APOTEK</t>
+  </si>
+  <si>
+    <t>072866</t>
+  </si>
+  <si>
+    <t>09ASG25000993</t>
+  </si>
+  <si>
+    <t>IMBANAGARA APOTEK</t>
+  </si>
+  <si>
+    <t>041950</t>
+  </si>
+  <si>
+    <t>09ASG25000994</t>
+  </si>
+  <si>
+    <t>09ASG25000995</t>
+  </si>
+  <si>
+    <t>17ASG25000493</t>
+  </si>
+  <si>
+    <t>MUJUR FARMA APOTEK-RANTEPAO</t>
+  </si>
+  <si>
+    <t>080374</t>
+  </si>
+  <si>
+    <t>17ASG25000494</t>
+  </si>
+  <si>
+    <t>049095/TCF/09/2025</t>
+  </si>
+  <si>
+    <t>19ASG25000310</t>
   </si>
 </sst>
 </file>
@@ -6331,10 +6763,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Z820"/>
+  <dimension ref="A1:Z885"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -32574,6 +33006,2086 @@
         <v>232</v>
       </c>
     </row>
+    <row r="821" spans="1:10" s="6" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A821" s="7">
+        <v>45945</v>
+      </c>
+      <c r="B821" s="6" t="s">
+        <v>2006</v>
+      </c>
+      <c r="C821" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D821" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E821" s="6" t="s">
+        <v>2007</v>
+      </c>
+      <c r="F821" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G821" s="6">
+        <v>0</v>
+      </c>
+      <c r="H821" s="6">
+        <v>235143</v>
+      </c>
+      <c r="I821" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="J821" s="6" t="s">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="822" spans="1:10" s="6" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A822" s="7">
+        <v>45945</v>
+      </c>
+      <c r="B822" s="6" t="s">
+        <v>2009</v>
+      </c>
+      <c r="C822" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D822" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E822" s="6" t="s">
+        <v>243</v>
+      </c>
+      <c r="F822" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G822" s="6">
+        <v>0</v>
+      </c>
+      <c r="H822" s="6">
+        <v>6505887</v>
+      </c>
+      <c r="I822" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="J822" s="6" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="823" spans="1:10" s="6" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A823" s="7">
+        <v>45945</v>
+      </c>
+      <c r="B823" s="6" t="s">
+        <v>2010</v>
+      </c>
+      <c r="C823" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D823" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E823" s="6" t="s">
+        <v>2011</v>
+      </c>
+      <c r="F823" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G823" s="6">
+        <v>0</v>
+      </c>
+      <c r="H823" s="6">
+        <v>1520002</v>
+      </c>
+      <c r="I823" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="J823" s="6" t="s">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="824" spans="1:10" s="6" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A824" s="7">
+        <v>45945</v>
+      </c>
+      <c r="B824" s="6" t="s">
+        <v>2013</v>
+      </c>
+      <c r="C824" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D824" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E824" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="F824" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G824" s="6">
+        <v>0</v>
+      </c>
+      <c r="H824" s="6">
+        <v>165044</v>
+      </c>
+      <c r="I824" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="J824" s="6" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="825" spans="1:10" s="6" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A825" s="7">
+        <v>45945</v>
+      </c>
+      <c r="B825" s="6" t="s">
+        <v>2014</v>
+      </c>
+      <c r="C825" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D825" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E825" s="6" t="s">
+        <v>1573</v>
+      </c>
+      <c r="F825" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G825" s="6">
+        <v>0</v>
+      </c>
+      <c r="H825" s="6">
+        <v>121623</v>
+      </c>
+      <c r="I825" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="J825" s="6" t="s">
+        <v>1574</v>
+      </c>
+    </row>
+    <row r="826" spans="1:10" s="6" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A826" s="7">
+        <v>45945</v>
+      </c>
+      <c r="B826" s="6" t="s">
+        <v>2015</v>
+      </c>
+      <c r="C826" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D826" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E826" s="6" t="s">
+        <v>2016</v>
+      </c>
+      <c r="F826" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G826" s="6">
+        <v>0</v>
+      </c>
+      <c r="H826" s="6">
+        <v>157658</v>
+      </c>
+      <c r="I826" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="J826" s="6" t="s">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="827" spans="1:10" s="6" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A827" s="7">
+        <v>45945</v>
+      </c>
+      <c r="B827" s="6" t="s">
+        <v>2018</v>
+      </c>
+      <c r="C827" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D827" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E827" s="6" t="s">
+        <v>1722</v>
+      </c>
+      <c r="F827" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G827" s="6">
+        <v>0</v>
+      </c>
+      <c r="H827" s="6">
+        <v>100211</v>
+      </c>
+      <c r="I827" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="J827" s="6" t="s">
+        <v>1723</v>
+      </c>
+    </row>
+    <row r="828" spans="1:10" s="6" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A828" s="7">
+        <v>45945</v>
+      </c>
+      <c r="B828" s="6" t="s">
+        <v>2019</v>
+      </c>
+      <c r="C828" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D828" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E828" s="6" t="s">
+        <v>261</v>
+      </c>
+      <c r="F828" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G828" s="6">
+        <v>0</v>
+      </c>
+      <c r="H828" s="6">
+        <v>108100</v>
+      </c>
+      <c r="I828" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="J828" s="6" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="829" spans="1:10" s="6" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A829" s="7">
+        <v>45945</v>
+      </c>
+      <c r="B829" s="6" t="s">
+        <v>2020</v>
+      </c>
+      <c r="C829" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D829" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E829" s="6" t="s">
+        <v>1827</v>
+      </c>
+      <c r="F829" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G829" s="6">
+        <v>0</v>
+      </c>
+      <c r="H829" s="6">
+        <v>1697412</v>
+      </c>
+      <c r="I829" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="J829" s="6" t="s">
+        <v>1828</v>
+      </c>
+    </row>
+    <row r="830" spans="1:10" s="6" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A830" s="7">
+        <v>45945</v>
+      </c>
+      <c r="B830" s="6" t="s">
+        <v>2021</v>
+      </c>
+      <c r="C830" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D830" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E830" s="6" t="s">
+        <v>2022</v>
+      </c>
+      <c r="F830" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G830" s="6">
+        <v>0</v>
+      </c>
+      <c r="H830" s="6">
+        <v>674999</v>
+      </c>
+      <c r="I830" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="J830" s="6" t="s">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="831" spans="1:10" s="6" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A831" s="7">
+        <v>45945</v>
+      </c>
+      <c r="B831" s="6" t="s">
+        <v>2024</v>
+      </c>
+      <c r="C831" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D831" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E831" s="6" t="s">
+        <v>740</v>
+      </c>
+      <c r="F831" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G831" s="6">
+        <v>0</v>
+      </c>
+      <c r="H831" s="6">
+        <v>3576699</v>
+      </c>
+      <c r="I831" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="J831" s="6" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="832" spans="1:10" s="6" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A832" s="7">
+        <v>45946</v>
+      </c>
+      <c r="B832" s="6" t="s">
+        <v>2025</v>
+      </c>
+      <c r="C832" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D832" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E832" s="6" t="s">
+        <v>2026</v>
+      </c>
+      <c r="F832" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G832" s="6">
+        <v>0</v>
+      </c>
+      <c r="H832" s="6">
+        <v>820000</v>
+      </c>
+      <c r="I832" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="J832" s="6" t="s">
+        <v>2027</v>
+      </c>
+    </row>
+    <row r="833" spans="1:10" s="6" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A833" s="7">
+        <v>45946</v>
+      </c>
+      <c r="B833" s="6" t="s">
+        <v>2028</v>
+      </c>
+      <c r="C833" s="6" t="s">
+        <v>2029</v>
+      </c>
+      <c r="D833" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E833" s="6" t="s">
+        <v>2030</v>
+      </c>
+      <c r="F833" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G833" s="6">
+        <v>0</v>
+      </c>
+      <c r="H833" s="6">
+        <v>202500</v>
+      </c>
+      <c r="I833" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="J833" s="6" t="s">
+        <v>2031</v>
+      </c>
+    </row>
+    <row r="834" spans="1:10" s="6" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A834" s="7">
+        <v>45946</v>
+      </c>
+      <c r="B834" s="6" t="s">
+        <v>2032</v>
+      </c>
+      <c r="C834" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D834" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E834" s="6" t="s">
+        <v>2033</v>
+      </c>
+      <c r="F834" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G834" s="6">
+        <v>0</v>
+      </c>
+      <c r="H834" s="6">
+        <v>235143</v>
+      </c>
+      <c r="I834" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="J834" s="6" t="s">
+        <v>2034</v>
+      </c>
+    </row>
+    <row r="835" spans="1:10" s="6" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A835" s="7">
+        <v>45946</v>
+      </c>
+      <c r="B835" s="6" t="s">
+        <v>2035</v>
+      </c>
+      <c r="C835" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D835" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E835" s="6" t="s">
+        <v>2036</v>
+      </c>
+      <c r="F835" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G835" s="6">
+        <v>0</v>
+      </c>
+      <c r="H835" s="6">
+        <v>72032</v>
+      </c>
+      <c r="I835" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="J835" s="6" t="s">
+        <v>2037</v>
+      </c>
+    </row>
+    <row r="836" spans="1:10" s="6" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A836" s="7">
+        <v>45946</v>
+      </c>
+      <c r="B836" s="6" t="s">
+        <v>2038</v>
+      </c>
+      <c r="C836" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D836" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E836" s="6" t="s">
+        <v>2039</v>
+      </c>
+      <c r="F836" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G836" s="6">
+        <v>0</v>
+      </c>
+      <c r="H836" s="6">
+        <v>60000</v>
+      </c>
+      <c r="I836" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="J836" s="6" t="s">
+        <v>2040</v>
+      </c>
+    </row>
+    <row r="837" spans="1:10" s="6" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A837" s="7">
+        <v>45946</v>
+      </c>
+      <c r="B837" s="6" t="s">
+        <v>2041</v>
+      </c>
+      <c r="C837" s="6" t="s">
+        <v>2042</v>
+      </c>
+      <c r="D837" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E837" s="6" t="s">
+        <v>986</v>
+      </c>
+      <c r="F837" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G837" s="6">
+        <v>0</v>
+      </c>
+      <c r="H837" s="6">
+        <v>178600</v>
+      </c>
+      <c r="I837" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="J837" s="6" t="s">
+        <v>987</v>
+      </c>
+    </row>
+    <row r="838" spans="1:10" s="6" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A838" s="7">
+        <v>45946</v>
+      </c>
+      <c r="B838" s="6" t="s">
+        <v>2043</v>
+      </c>
+      <c r="C838" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D838" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E838" s="6" t="s">
+        <v>2044</v>
+      </c>
+      <c r="F838" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G838" s="6">
+        <v>0</v>
+      </c>
+      <c r="H838" s="6">
+        <v>75600</v>
+      </c>
+      <c r="I838" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="J838" s="6" t="s">
+        <v>2045</v>
+      </c>
+    </row>
+    <row r="839" spans="1:10" s="6" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A839" s="7">
+        <v>45946</v>
+      </c>
+      <c r="B839" s="6" t="s">
+        <v>2046</v>
+      </c>
+      <c r="C839" s="6" t="s">
+        <v>2047</v>
+      </c>
+      <c r="D839" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E839" s="6" t="s">
+        <v>2048</v>
+      </c>
+      <c r="F839" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G839" s="6">
+        <v>0</v>
+      </c>
+      <c r="H839" s="6">
+        <v>569430</v>
+      </c>
+      <c r="I839" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="J839" s="6" t="s">
+        <v>2049</v>
+      </c>
+    </row>
+    <row r="840" spans="1:10" s="6" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A840" s="7">
+        <v>45946</v>
+      </c>
+      <c r="B840" s="6" t="s">
+        <v>2050</v>
+      </c>
+      <c r="C840" s="6" t="s">
+        <v>2051</v>
+      </c>
+      <c r="D840" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E840" s="6" t="s">
+        <v>2052</v>
+      </c>
+      <c r="F840" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G840" s="6">
+        <v>0</v>
+      </c>
+      <c r="H840" s="6">
+        <v>131100</v>
+      </c>
+      <c r="I840" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="J840" s="6" t="s">
+        <v>2053</v>
+      </c>
+    </row>
+    <row r="841" spans="1:10" s="6" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A841" s="7">
+        <v>45946</v>
+      </c>
+      <c r="B841" s="6" t="s">
+        <v>2054</v>
+      </c>
+      <c r="C841" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D841" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E841" s="6" t="s">
+        <v>1929</v>
+      </c>
+      <c r="F841" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G841" s="6">
+        <v>0</v>
+      </c>
+      <c r="H841" s="6">
+        <v>603223</v>
+      </c>
+      <c r="I841" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="J841" s="6" t="s">
+        <v>1930</v>
+      </c>
+    </row>
+    <row r="842" spans="1:10" s="6" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A842" s="7">
+        <v>45946</v>
+      </c>
+      <c r="B842" s="6" t="s">
+        <v>2055</v>
+      </c>
+      <c r="C842" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D842" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E842" s="6" t="s">
+        <v>2056</v>
+      </c>
+      <c r="F842" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G842" s="6">
+        <v>0</v>
+      </c>
+      <c r="H842" s="6">
+        <v>75000</v>
+      </c>
+      <c r="I842" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="J842" s="6" t="s">
+        <v>2057</v>
+      </c>
+    </row>
+    <row r="843" spans="1:10" s="6" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A843" s="7">
+        <v>45946</v>
+      </c>
+      <c r="B843" s="6" t="s">
+        <v>2058</v>
+      </c>
+      <c r="C843" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D843" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E843" s="6" t="s">
+        <v>446</v>
+      </c>
+      <c r="F843" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G843" s="6">
+        <v>0</v>
+      </c>
+      <c r="H843" s="6">
+        <v>759240</v>
+      </c>
+      <c r="I843" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="J843" s="6" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="844" spans="1:10" s="6" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A844" s="7">
+        <v>45946</v>
+      </c>
+      <c r="B844" s="6" t="s">
+        <v>2059</v>
+      </c>
+      <c r="C844" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D844" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E844" s="6" t="s">
+        <v>2060</v>
+      </c>
+      <c r="F844" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G844" s="6">
+        <v>0</v>
+      </c>
+      <c r="H844" s="6">
+        <v>1816612</v>
+      </c>
+      <c r="I844" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="J844" s="6" t="s">
+        <v>2061</v>
+      </c>
+    </row>
+    <row r="845" spans="1:10" s="6" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A845" s="7">
+        <v>45947</v>
+      </c>
+      <c r="B845" s="6" t="s">
+        <v>2062</v>
+      </c>
+      <c r="C845" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D845" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E845" s="6" t="s">
+        <v>2063</v>
+      </c>
+      <c r="F845" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G845" s="6">
+        <v>0</v>
+      </c>
+      <c r="H845" s="6">
+        <v>146000</v>
+      </c>
+      <c r="I845" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="J845" s="6" t="s">
+        <v>2064</v>
+      </c>
+    </row>
+    <row r="846" spans="1:10" s="6" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A846" s="7">
+        <v>45947</v>
+      </c>
+      <c r="B846" s="6" t="s">
+        <v>2065</v>
+      </c>
+      <c r="C846" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D846" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E846" s="6" t="s">
+        <v>2066</v>
+      </c>
+      <c r="F846" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G846" s="6">
+        <v>0</v>
+      </c>
+      <c r="H846" s="6">
+        <v>318250</v>
+      </c>
+      <c r="I846" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="J846" s="6" t="s">
+        <v>2067</v>
+      </c>
+    </row>
+    <row r="847" spans="1:10" s="6" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A847" s="7">
+        <v>45947</v>
+      </c>
+      <c r="B847" s="6" t="s">
+        <v>2068</v>
+      </c>
+      <c r="C847" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D847" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E847" s="6" t="s">
+        <v>393</v>
+      </c>
+      <c r="F847" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G847" s="6">
+        <v>0</v>
+      </c>
+      <c r="H847" s="6">
+        <v>322320</v>
+      </c>
+      <c r="I847" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="J847" s="6" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="848" spans="1:10" s="6" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A848" s="7">
+        <v>45947</v>
+      </c>
+      <c r="B848" s="6" t="s">
+        <v>2069</v>
+      </c>
+      <c r="C848" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D848" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E848" s="6" t="s">
+        <v>1354</v>
+      </c>
+      <c r="F848" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G848" s="6">
+        <v>0</v>
+      </c>
+      <c r="H848" s="6">
+        <v>100599</v>
+      </c>
+      <c r="I848" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="J848" s="6" t="s">
+        <v>1355</v>
+      </c>
+    </row>
+    <row r="849" spans="1:10" s="6" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A849" s="7">
+        <v>45947</v>
+      </c>
+      <c r="B849" s="6" t="s">
+        <v>2070</v>
+      </c>
+      <c r="C849" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D849" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E849" s="6" t="s">
+        <v>2071</v>
+      </c>
+      <c r="F849" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G849" s="6">
+        <v>0</v>
+      </c>
+      <c r="H849" s="6">
+        <v>429736</v>
+      </c>
+      <c r="I849" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="J849" s="6" t="s">
+        <v>2072</v>
+      </c>
+    </row>
+    <row r="850" spans="1:10" s="6" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A850" s="7">
+        <v>45947</v>
+      </c>
+      <c r="B850" s="6" t="s">
+        <v>2073</v>
+      </c>
+      <c r="C850" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D850" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E850" s="6" t="s">
+        <v>252</v>
+      </c>
+      <c r="F850" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G850" s="6">
+        <v>0</v>
+      </c>
+      <c r="H850" s="6">
+        <v>141081</v>
+      </c>
+      <c r="I850" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="J850" s="6" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="851" spans="1:10" s="6" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A851" s="7">
+        <v>45947</v>
+      </c>
+      <c r="B851" s="6" t="s">
+        <v>2074</v>
+      </c>
+      <c r="C851" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D851" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E851" s="6" t="s">
+        <v>2075</v>
+      </c>
+      <c r="F851" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G851" s="6">
+        <v>0</v>
+      </c>
+      <c r="H851" s="6">
+        <v>910588</v>
+      </c>
+      <c r="I851" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="J851" s="6" t="s">
+        <v>2076</v>
+      </c>
+    </row>
+    <row r="852" spans="1:10" s="6" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A852" s="7">
+        <v>45947</v>
+      </c>
+      <c r="B852" s="6" t="s">
+        <v>2077</v>
+      </c>
+      <c r="C852" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D852" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E852" s="6" t="s">
+        <v>1382</v>
+      </c>
+      <c r="F852" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G852" s="6">
+        <v>0</v>
+      </c>
+      <c r="H852" s="6">
+        <v>7995120</v>
+      </c>
+      <c r="I852" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="J852" s="6" t="s">
+        <v>1383</v>
+      </c>
+    </row>
+    <row r="853" spans="1:10" s="6" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A853" s="7">
+        <v>45947</v>
+      </c>
+      <c r="B853" s="6" t="s">
+        <v>2078</v>
+      </c>
+      <c r="C853" s="6" t="s">
+        <v>2079</v>
+      </c>
+      <c r="D853" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E853" s="6" t="s">
+        <v>2080</v>
+      </c>
+      <c r="F853" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G853" s="6">
+        <v>0</v>
+      </c>
+      <c r="H853" s="6">
+        <v>699300</v>
+      </c>
+      <c r="I853" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="J853" s="6" t="s">
+        <v>2081</v>
+      </c>
+    </row>
+    <row r="854" spans="1:10" s="6" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A854" s="7">
+        <v>45947</v>
+      </c>
+      <c r="B854" s="6" t="s">
+        <v>2082</v>
+      </c>
+      <c r="C854" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D854" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E854" s="6" t="s">
+        <v>2083</v>
+      </c>
+      <c r="F854" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G854" s="6">
+        <v>0</v>
+      </c>
+      <c r="H854" s="6">
+        <v>2397600</v>
+      </c>
+      <c r="I854" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="J854" s="6" t="s">
+        <v>2084</v>
+      </c>
+    </row>
+    <row r="855" spans="1:10" s="6" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A855" s="7">
+        <v>45947</v>
+      </c>
+      <c r="B855" s="6" t="s">
+        <v>2085</v>
+      </c>
+      <c r="C855" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D855" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E855" s="6" t="s">
+        <v>2086</v>
+      </c>
+      <c r="F855" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G855" s="6">
+        <v>0</v>
+      </c>
+      <c r="H855" s="6">
+        <v>130635</v>
+      </c>
+      <c r="I855" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="J855" s="6" t="s">
+        <v>2087</v>
+      </c>
+    </row>
+    <row r="856" spans="1:10" s="6" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A856" s="7">
+        <v>45947</v>
+      </c>
+      <c r="B856" s="6" t="s">
+        <v>2088</v>
+      </c>
+      <c r="C856" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D856" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E856" s="6" t="s">
+        <v>2086</v>
+      </c>
+      <c r="F856" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G856" s="6">
+        <v>0</v>
+      </c>
+      <c r="H856" s="6">
+        <v>112620</v>
+      </c>
+      <c r="I856" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="J856" s="6" t="s">
+        <v>2087</v>
+      </c>
+    </row>
+    <row r="857" spans="1:10" s="6" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A857" s="7">
+        <v>45947</v>
+      </c>
+      <c r="B857" s="6" t="s">
+        <v>2089</v>
+      </c>
+      <c r="C857" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D857" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E857" s="6" t="s">
+        <v>2086</v>
+      </c>
+      <c r="F857" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G857" s="6">
+        <v>0</v>
+      </c>
+      <c r="H857" s="6">
+        <v>36936</v>
+      </c>
+      <c r="I857" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="J857" s="6" t="s">
+        <v>2087</v>
+      </c>
+    </row>
+    <row r="858" spans="1:10" s="6" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A858" s="7">
+        <v>45947</v>
+      </c>
+      <c r="B858" s="6" t="s">
+        <v>2090</v>
+      </c>
+      <c r="C858" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D858" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E858" s="6" t="s">
+        <v>1731</v>
+      </c>
+      <c r="F858" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G858" s="6">
+        <v>0</v>
+      </c>
+      <c r="H858" s="6">
+        <v>788258</v>
+      </c>
+      <c r="I858" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="J858" s="6" t="s">
+        <v>1732</v>
+      </c>
+    </row>
+    <row r="859" spans="1:10" s="6" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A859" s="7">
+        <v>45947</v>
+      </c>
+      <c r="B859" s="6" t="s">
+        <v>2091</v>
+      </c>
+      <c r="C859" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D859" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E859" s="6" t="s">
+        <v>1731</v>
+      </c>
+      <c r="F859" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G859" s="6">
+        <v>0</v>
+      </c>
+      <c r="H859" s="6">
+        <v>1576516</v>
+      </c>
+      <c r="I859" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="J859" s="6" t="s">
+        <v>1732</v>
+      </c>
+    </row>
+    <row r="860" spans="1:10" s="6" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A860" s="7">
+        <v>45947</v>
+      </c>
+      <c r="B860" s="6" t="s">
+        <v>2092</v>
+      </c>
+      <c r="C860" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D860" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="E860" s="6" t="s">
+        <v>2093</v>
+      </c>
+      <c r="F860" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G860" s="6">
+        <v>0</v>
+      </c>
+      <c r="H860" s="6">
+        <v>5194996</v>
+      </c>
+      <c r="I860" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="J860" s="6" t="s">
+        <v>2094</v>
+      </c>
+    </row>
+    <row r="861" spans="1:10" s="6" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A861" s="7">
+        <v>45947</v>
+      </c>
+      <c r="B861" s="6" t="s">
+        <v>2095</v>
+      </c>
+      <c r="C861" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D861" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="E861" s="6" t="s">
+        <v>375</v>
+      </c>
+      <c r="F861" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G861" s="6">
+        <v>0</v>
+      </c>
+      <c r="H861" s="6">
+        <v>16228005</v>
+      </c>
+      <c r="I861" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="J861" s="6" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="862" spans="1:10" s="6" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A862" s="7">
+        <v>45947</v>
+      </c>
+      <c r="B862" s="6" t="s">
+        <v>2096</v>
+      </c>
+      <c r="C862" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D862" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="E862" s="6" t="s">
+        <v>2097</v>
+      </c>
+      <c r="F862" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G862" s="6">
+        <v>0</v>
+      </c>
+      <c r="H862" s="6">
+        <v>1528800</v>
+      </c>
+      <c r="I862" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="J862" s="6" t="s">
+        <v>2098</v>
+      </c>
+    </row>
+    <row r="863" spans="1:10" s="6" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A863" s="7">
+        <v>45947</v>
+      </c>
+      <c r="B863" s="6" t="s">
+        <v>2099</v>
+      </c>
+      <c r="C863" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D863" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="E863" s="6" t="s">
+        <v>2100</v>
+      </c>
+      <c r="F863" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G863" s="6">
+        <v>0</v>
+      </c>
+      <c r="H863" s="6">
+        <v>4735746</v>
+      </c>
+      <c r="I863" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="J863" s="6" t="s">
+        <v>2101</v>
+      </c>
+    </row>
+    <row r="864" spans="1:10" s="6" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A864" s="7">
+        <v>45947</v>
+      </c>
+      <c r="B864" s="6" t="s">
+        <v>2102</v>
+      </c>
+      <c r="C864" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D864" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="E864" s="6" t="s">
+        <v>2100</v>
+      </c>
+      <c r="F864" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G864" s="6">
+        <v>0</v>
+      </c>
+      <c r="H864" s="6">
+        <v>31800789</v>
+      </c>
+      <c r="I864" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="J864" s="6" t="s">
+        <v>2101</v>
+      </c>
+    </row>
+    <row r="865" spans="1:10" s="6" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A865" s="7">
+        <v>45948</v>
+      </c>
+      <c r="B865" s="6" t="s">
+        <v>2103</v>
+      </c>
+      <c r="C865" s="6" t="s">
+        <v>2104</v>
+      </c>
+      <c r="D865" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E865" s="6" t="s">
+        <v>2105</v>
+      </c>
+      <c r="F865" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G865" s="6">
+        <v>0</v>
+      </c>
+      <c r="H865" s="6">
+        <v>3776250</v>
+      </c>
+      <c r="I865" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="J865" s="6" t="s">
+        <v>2106</v>
+      </c>
+    </row>
+    <row r="866" spans="1:10" s="6" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A866" s="7">
+        <v>45948</v>
+      </c>
+      <c r="B866" s="6" t="s">
+        <v>2107</v>
+      </c>
+      <c r="C866" s="6" t="s">
+        <v>2108</v>
+      </c>
+      <c r="D866" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E866" s="6" t="s">
+        <v>2109</v>
+      </c>
+      <c r="F866" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G866" s="6">
+        <v>0</v>
+      </c>
+      <c r="H866" s="6">
+        <v>104000</v>
+      </c>
+      <c r="I866" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="J866" s="6" t="s">
+        <v>2110</v>
+      </c>
+    </row>
+    <row r="867" spans="1:10" s="6" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A867" s="7">
+        <v>45948</v>
+      </c>
+      <c r="B867" s="6" t="s">
+        <v>2111</v>
+      </c>
+      <c r="C867" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D867" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E867" s="6" t="s">
+        <v>2112</v>
+      </c>
+      <c r="F867" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G867" s="6">
+        <v>0</v>
+      </c>
+      <c r="H867" s="6">
+        <v>76577</v>
+      </c>
+      <c r="I867" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="J867" s="6" t="s">
+        <v>2113</v>
+      </c>
+    </row>
+    <row r="868" spans="1:10" s="6" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A868" s="7">
+        <v>45948</v>
+      </c>
+      <c r="B868" s="6" t="s">
+        <v>2114</v>
+      </c>
+      <c r="C868" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D868" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E868" s="6" t="s">
+        <v>2115</v>
+      </c>
+      <c r="F868" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G868" s="6">
+        <v>0</v>
+      </c>
+      <c r="H868" s="6">
+        <v>233000</v>
+      </c>
+      <c r="I868" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="J868" s="6" t="s">
+        <v>2116</v>
+      </c>
+    </row>
+    <row r="869" spans="1:10" s="6" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A869" s="7">
+        <v>45948</v>
+      </c>
+      <c r="B869" s="6" t="s">
+        <v>2117</v>
+      </c>
+      <c r="C869" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D869" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E869" s="6" t="s">
+        <v>2118</v>
+      </c>
+      <c r="F869" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G869" s="6">
+        <v>0</v>
+      </c>
+      <c r="H869" s="6">
+        <v>359370</v>
+      </c>
+      <c r="I869" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="J869" s="6" t="s">
+        <v>2119</v>
+      </c>
+    </row>
+    <row r="870" spans="1:10" s="6" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A870" s="7">
+        <v>45948</v>
+      </c>
+      <c r="B870" s="6" t="s">
+        <v>2120</v>
+      </c>
+      <c r="C870" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D870" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="E870" s="6" t="s">
+        <v>314</v>
+      </c>
+      <c r="F870" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G870" s="6">
+        <v>0</v>
+      </c>
+      <c r="H870" s="6">
+        <v>468655</v>
+      </c>
+      <c r="I870" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="J870" s="6" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="871" spans="1:10" s="6" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A871" s="7">
+        <v>45948</v>
+      </c>
+      <c r="B871" s="6" t="s">
+        <v>2121</v>
+      </c>
+      <c r="C871" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D871" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="E871" s="6" t="s">
+        <v>314</v>
+      </c>
+      <c r="F871" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G871" s="6">
+        <v>0</v>
+      </c>
+      <c r="H871" s="6">
+        <v>741755</v>
+      </c>
+      <c r="I871" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="J871" s="6" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="872" spans="1:10" s="6" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A872" s="7">
+        <v>45950</v>
+      </c>
+      <c r="B872" s="6" t="s">
+        <v>2122</v>
+      </c>
+      <c r="C872" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D872" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E872" s="6" t="s">
+        <v>1901</v>
+      </c>
+      <c r="F872" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G872" s="6">
+        <v>0</v>
+      </c>
+      <c r="H872" s="6">
+        <v>588707</v>
+      </c>
+      <c r="I872" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="J872" s="6" t="s">
+        <v>1902</v>
+      </c>
+    </row>
+    <row r="873" spans="1:10" s="6" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A873" s="7">
+        <v>45950</v>
+      </c>
+      <c r="B873" s="6" t="s">
+        <v>2123</v>
+      </c>
+      <c r="C873" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D873" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E873" s="6" t="s">
+        <v>324</v>
+      </c>
+      <c r="F873" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G873" s="6">
+        <v>0</v>
+      </c>
+      <c r="H873" s="6">
+        <v>130635</v>
+      </c>
+      <c r="I873" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="J873" s="6" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="874" spans="1:10" s="6" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A874" s="7">
+        <v>45950</v>
+      </c>
+      <c r="B874" s="6" t="s">
+        <v>2124</v>
+      </c>
+      <c r="C874" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D874" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E874" s="6" t="s">
+        <v>2125</v>
+      </c>
+      <c r="F874" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G874" s="6">
+        <v>0</v>
+      </c>
+      <c r="H874" s="6">
+        <v>1571497</v>
+      </c>
+      <c r="I874" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="J874" s="6" t="s">
+        <v>2126</v>
+      </c>
+    </row>
+    <row r="875" spans="1:10" s="6" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A875" s="7">
+        <v>45950</v>
+      </c>
+      <c r="B875" s="6" t="s">
+        <v>2127</v>
+      </c>
+      <c r="C875" s="6" t="s">
+        <v>2128</v>
+      </c>
+      <c r="D875" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E875" s="6" t="s">
+        <v>2129</v>
+      </c>
+      <c r="F875" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G875" s="6">
+        <v>0</v>
+      </c>
+      <c r="H875" s="6">
+        <v>2091240</v>
+      </c>
+      <c r="I875" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="J875" s="6" t="s">
+        <v>2130</v>
+      </c>
+    </row>
+    <row r="876" spans="1:10" s="6" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A876" s="7">
+        <v>45950</v>
+      </c>
+      <c r="B876" s="6" t="s">
+        <v>2131</v>
+      </c>
+      <c r="C876" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D876" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E876" s="6" t="s">
+        <v>342</v>
+      </c>
+      <c r="F876" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G876" s="6">
+        <v>0</v>
+      </c>
+      <c r="H876" s="6">
+        <v>445752</v>
+      </c>
+      <c r="I876" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="J876" s="6" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="877" spans="1:10" s="6" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A877" s="7">
+        <v>45950</v>
+      </c>
+      <c r="B877" s="6" t="s">
+        <v>2132</v>
+      </c>
+      <c r="C877" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D877" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="E877" s="6" t="s">
+        <v>314</v>
+      </c>
+      <c r="F877" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G877" s="6">
+        <v>0</v>
+      </c>
+      <c r="H877" s="6">
+        <v>1778220</v>
+      </c>
+      <c r="I877" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="J877" s="6" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="878" spans="1:10" s="6" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A878" s="7">
+        <v>45951</v>
+      </c>
+      <c r="B878" s="6" t="s">
+        <v>2133</v>
+      </c>
+      <c r="C878" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D878" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E878" s="6" t="s">
+        <v>2134</v>
+      </c>
+      <c r="F878" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G878" s="6">
+        <v>0</v>
+      </c>
+      <c r="H878" s="6">
+        <v>93000</v>
+      </c>
+      <c r="I878" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="J878" s="6" t="s">
+        <v>2135</v>
+      </c>
+    </row>
+    <row r="879" spans="1:10" s="6" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A879" s="7">
+        <v>45951</v>
+      </c>
+      <c r="B879" s="6" t="s">
+        <v>2136</v>
+      </c>
+      <c r="C879" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D879" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E879" s="6" t="s">
+        <v>2137</v>
+      </c>
+      <c r="F879" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G879" s="6">
+        <v>0</v>
+      </c>
+      <c r="H879" s="6">
+        <v>157752</v>
+      </c>
+      <c r="I879" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="J879" s="6" t="s">
+        <v>2138</v>
+      </c>
+    </row>
+    <row r="880" spans="1:10" s="6" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A880" s="7">
+        <v>45951</v>
+      </c>
+      <c r="B880" s="6" t="s">
+        <v>2139</v>
+      </c>
+      <c r="C880" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D880" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E880" s="6" t="s">
+        <v>2140</v>
+      </c>
+      <c r="F880" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G880" s="6">
+        <v>0</v>
+      </c>
+      <c r="H880" s="6">
+        <v>243685</v>
+      </c>
+      <c r="I880" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="J880" s="6" t="s">
+        <v>2141</v>
+      </c>
+    </row>
+    <row r="881" spans="1:10" s="6" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A881" s="7">
+        <v>45951</v>
+      </c>
+      <c r="B881" s="6" t="s">
+        <v>2142</v>
+      </c>
+      <c r="C881" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D881" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E881" s="6" t="s">
+        <v>547</v>
+      </c>
+      <c r="F881" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G881" s="6">
+        <v>0</v>
+      </c>
+      <c r="H881" s="6">
+        <v>5008320</v>
+      </c>
+      <c r="I881" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="J881" s="6" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="882" spans="1:10" s="6" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A882" s="7">
+        <v>45951</v>
+      </c>
+      <c r="B882" s="6" t="s">
+        <v>2143</v>
+      </c>
+      <c r="C882" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D882" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E882" s="6" t="s">
+        <v>547</v>
+      </c>
+      <c r="F882" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G882" s="6">
+        <v>0</v>
+      </c>
+      <c r="H882" s="6">
+        <v>692640</v>
+      </c>
+      <c r="I882" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="J882" s="6" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="883" spans="1:10" s="6" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A883" s="7">
+        <v>45951</v>
+      </c>
+      <c r="B883" s="6" t="s">
+        <v>2144</v>
+      </c>
+      <c r="C883" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D883" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E883" s="6" t="s">
+        <v>2145</v>
+      </c>
+      <c r="F883" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G883" s="6">
+        <v>0</v>
+      </c>
+      <c r="H883" s="6">
+        <v>1900375</v>
+      </c>
+      <c r="I883" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="J883" s="6" t="s">
+        <v>2146</v>
+      </c>
+    </row>
+    <row r="884" spans="1:10" s="6" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A884" s="7">
+        <v>45951</v>
+      </c>
+      <c r="B884" s="6" t="s">
+        <v>2147</v>
+      </c>
+      <c r="C884" s="6" t="s">
+        <v>2148</v>
+      </c>
+      <c r="D884" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E884" s="6" t="s">
+        <v>659</v>
+      </c>
+      <c r="F884" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G884" s="6">
+        <v>0</v>
+      </c>
+      <c r="H884" s="6">
+        <v>2249847</v>
+      </c>
+      <c r="I884" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="J884" s="6" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="885" spans="1:10" s="6" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A885" s="7">
+        <v>45951</v>
+      </c>
+      <c r="B885" s="6" t="s">
+        <v>2149</v>
+      </c>
+      <c r="C885" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D885" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="E885" s="6" t="s">
+        <v>639</v>
+      </c>
+      <c r="F885" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G885" s="6">
+        <v>0</v>
+      </c>
+      <c r="H885" s="6">
+        <v>2435114</v>
+      </c>
+      <c r="I885" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="J885" s="6" t="s">
+        <v>640</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
